--- a/WEEK formos/WEEK 05-04.xlsx
+++ b/WEEK formos/WEEK 05-04.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Šarka\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{93B0D62D-756A-4EFA-BE5F-8EDB4F0C96DB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A1FB969A-A035-446D-AA24-DADC89D2099D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,10 @@
   </externalReferences>
   <definedNames>
     <definedName name="AsOfDateOverride">[1]Project!$D$7</definedName>
+    <definedName name="Cycle">[1]Project!$D$6</definedName>
     <definedName name="CumEarnedValue">[1]Schedule!$B$7:$B$8,[1]Schedule!$H$7:$H$8,[1]Schedule!$J$7:$J$8,[1]Schedule!$N$7:$N$8</definedName>
     <definedName name="CumPlannedActualHours">[1]Schedule!$B$7:$B$17,[1]Schedule!$D$7:$D$15,[1]Schedule!$F$7:$F$12</definedName>
     <definedName name="currentDate">[1]Project!$D$3</definedName>
-    <definedName name="Cycle">[1]Project!$D$6</definedName>
     <definedName name="Defects_KLOC">[1]SUMQ!$A$19:$A$26,[1]SUMQ!$F$19:$F$26</definedName>
     <definedName name="InstructorName">[1]Project!$D$5</definedName>
     <definedName name="Name">[1]Project!$B$3</definedName>
@@ -32,9 +32,9 @@
     <definedName name="ProjectInfo">[1]Project!$B$3:$B$5,[1]Project!$D$4:$D$7</definedName>
     <definedName name="ProjectStartDate">[1]Project!$D$4</definedName>
     <definedName name="RolesData">[1]Roles!$A$20:$A$25,[1]Roles!$B$2:$E$25</definedName>
+    <definedName name="SYSTEM_Percent_Defect_Free">[1]SUMQ!$A$7:$A$12,[1]SUMQ!$F$7:$F$12</definedName>
     <definedName name="SUMPData">[1]SUMP!$D$91:$D$92,[1]SUMP!$B$96:$B$98,[1]SUMP!$D$96:$D$98</definedName>
     <definedName name="SUMQData">[1]SUMQ!$D$7:$D$12,[1]SUMQ!$F$11:$F$12,[1]SUMQ!$D$55:$D$72,[1]SUMQ!$D$82:$D$99</definedName>
-    <definedName name="SYSTEM_Percent_Defect_Free">[1]SUMQ!$A$7:$A$12,[1]SUMQ!$F$7:$F$12</definedName>
     <definedName name="TeamName">[1]Project!$B$5</definedName>
     <definedName name="TSPProcessName">[1]Project!$A$1</definedName>
     <definedName name="validTeamMembersInitials">[1]Team!$C$2:$C$21</definedName>
@@ -157,13 +157,13 @@
     <t>Optimistic locking</t>
   </si>
   <si>
-    <t>Order repurchase, order confirmation</t>
-  </si>
-  <si>
-    <t>80   ????</t>
-  </si>
-  <si>
-    <t>Lots of bugfixes ?</t>
+    <t>Order History</t>
+  </si>
+  <si>
+    <t>Order Repurchase</t>
+  </si>
+  <si>
+    <t>Order Confirmation</t>
   </si>
 </sst>
 </file>
@@ -930,8 +930,8 @@
   <sheetPr codeName="WeekSummary"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1053,7 +1053,9 @@
       <c r="G7" s="5">
         <v>40</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -1065,7 +1067,7 @@
         <v>120</v>
       </c>
       <c r="I8" s="5">
-        <v>82.5</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1078,7 +1080,7 @@
         <v>40</v>
       </c>
       <c r="I9" s="5">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1091,7 +1093,7 @@
         <v>120</v>
       </c>
       <c r="I10" s="5">
-        <v>82.5</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1100,11 +1102,11 @@
       </c>
       <c r="C11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="G11" s="5" t="s">
-        <v>36</v>
+      <c r="G11" s="5">
+        <v>120</v>
       </c>
       <c r="I11" s="5">
-        <v>82.5</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1143,10 +1145,18 @@
         <f>[1]Roles!A2</f>
         <v>Team Leader</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="C15" s="5">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5">
+        <v>8</v>
+      </c>
+      <c r="I15" s="5">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="str">
@@ -1154,16 +1164,16 @@
         <v>Development Manager</v>
       </c>
       <c r="C16" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I16" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1171,30 +1181,54 @@
         <f>[1]Roles!A6</f>
         <v>Planning Manager</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="C17" s="5">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5">
+        <v>8</v>
+      </c>
+      <c r="I17" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="str">
         <f>[1]Roles!A8</f>
         <v>Quality/Process Manager</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="C18" s="5">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5">
+        <v>8</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8</v>
+      </c>
+      <c r="I18" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="str">
         <f>[1]Roles!A10</f>
         <v>Support Manager</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="5">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5">
+        <v>8</v>
+      </c>
+      <c r="I19" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
@@ -1207,10 +1241,18 @@
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="C21" s="5">
+        <v>40</v>
+      </c>
+      <c r="E21" s="5">
+        <v>48</v>
+      </c>
+      <c r="G21" s="5">
+        <v>40</v>
+      </c>
+      <c r="I21" s="5">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -1238,45 +1280,53 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="I24" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E25" s="4">
-        <v>0.5</v>
+        <v>6</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
       </c>
       <c r="G25" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E26" s="4">
-        <v>6</v>
-      </c>
-      <c r="F26" s="2">
         <v>5</v>
       </c>
       <c r="G26" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I26" s="5">
         <v>5</v>
@@ -1284,69 +1334,139 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="I27" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C27" s="4">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5</v>
+      </c>
+      <c r="G27" s="5">
+        <v>5</v>
+      </c>
+      <c r="I27" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="I28" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="C28" s="4">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4">
+        <v>6</v>
+      </c>
+      <c r="G28" s="5">
+        <v>8</v>
+      </c>
+      <c r="I28" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E29" s="4">
         <v>6</v>
       </c>
-      <c r="G29" s="5">
-        <v>7</v>
+      <c r="G29" s="4">
+        <v>5</v>
       </c>
       <c r="I29" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="5"/>
+      <c r="A30" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4</v>
+      </c>
+      <c r="E30" s="4">
+        <v>4</v>
+      </c>
+      <c r="G30" s="5">
+        <v>4</v>
+      </c>
+      <c r="I30" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2</v>
+      </c>
+      <c r="I31" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="A32" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3</v>
+      </c>
+      <c r="G32" s="5">
+        <v>3</v>
+      </c>
+      <c r="I32" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3</v>
+      </c>
+      <c r="E33" s="4">
+        <v>3</v>
+      </c>
+      <c r="G33" s="5">
+        <v>3</v>
+      </c>
+      <c r="I33" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="C34" s="4">
+        <v>5</v>
+      </c>
+      <c r="E34" s="4">
+        <v>5</v>
+      </c>
+      <c r="G34" s="5">
+        <v>5</v>
+      </c>
+      <c r="I34" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I36" s="5"/>

--- a/WEEK formos/WEEK 05-04.xlsx
+++ b/WEEK formos/WEEK 05-04.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Šarka\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A1FB969A-A035-446D-AA24-DADC89D2099D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -20,10 +14,10 @@
   </externalReferences>
   <definedNames>
     <definedName name="AsOfDateOverride">[1]Project!$D$7</definedName>
-    <definedName name="Cycle">[1]Project!$D$6</definedName>
     <definedName name="CumEarnedValue">[1]Schedule!$B$7:$B$8,[1]Schedule!$H$7:$H$8,[1]Schedule!$J$7:$J$8,[1]Schedule!$N$7:$N$8</definedName>
     <definedName name="CumPlannedActualHours">[1]Schedule!$B$7:$B$17,[1]Schedule!$D$7:$D$15,[1]Schedule!$F$7:$F$12</definedName>
     <definedName name="currentDate">[1]Project!$D$3</definedName>
+    <definedName name="Cycle">[1]Project!$D$6</definedName>
     <definedName name="Defects_KLOC">[1]SUMQ!$A$19:$A$26,[1]SUMQ!$F$19:$F$26</definedName>
     <definedName name="InstructorName">[1]Project!$D$5</definedName>
     <definedName name="Name">[1]Project!$B$3</definedName>
@@ -32,15 +26,15 @@
     <definedName name="ProjectInfo">[1]Project!$B$3:$B$5,[1]Project!$D$4:$D$7</definedName>
     <definedName name="ProjectStartDate">[1]Project!$D$4</definedName>
     <definedName name="RolesData">[1]Roles!$A$20:$A$25,[1]Roles!$B$2:$E$25</definedName>
-    <definedName name="SYSTEM_Percent_Defect_Free">[1]SUMQ!$A$7:$A$12,[1]SUMQ!$F$7:$F$12</definedName>
     <definedName name="SUMPData">[1]SUMP!$D$91:$D$92,[1]SUMP!$B$96:$B$98,[1]SUMP!$D$96:$D$98</definedName>
     <definedName name="SUMQData">[1]SUMQ!$D$7:$D$12,[1]SUMQ!$F$11:$F$12,[1]SUMQ!$D$55:$D$72,[1]SUMQ!$D$82:$D$99</definedName>
+    <definedName name="SYSTEM_Percent_Defect_Free">[1]SUMQ!$A$7:$A$12,[1]SUMQ!$F$7:$F$12</definedName>
     <definedName name="TeamName">[1]Project!$B$5</definedName>
     <definedName name="TSPProcessName">[1]Project!$A$1</definedName>
     <definedName name="validTeamMembersInitials">[1]Team!$C$2:$C$21</definedName>
     <definedName name="WEEKData">Week!$G$7:$G$11,Week!$I$7:$I$11,Week!$C$15:$C$20,Week!$E$15:$E$20,Week!$G$15:$G$20,Week!$I$15:$I$20</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Plan Week</t>
   </si>
@@ -164,12 +158,15 @@
   </si>
   <si>
     <t>Order Confirmation</t>
+  </si>
+  <si>
+    <t>Request logging</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -382,14 +379,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -397,12 +391,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -673,7 +661,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -725,7 +713,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -919,24 +907,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="WeekSummary"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I36" sqref="C36:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="0.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="0.85546875" style="2" customWidth="1"/>
@@ -1155,7 +1143,7 @@
         <v>8</v>
       </c>
       <c r="I15" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1173,7 +1161,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1242,16 +1230,20 @@
         <v>5</v>
       </c>
       <c r="C21" s="5">
+        <f>SUM(C15:C19)</f>
         <v>40</v>
       </c>
       <c r="E21" s="5">
+        <f>SUM(E15:E19)</f>
         <v>48</v>
       </c>
       <c r="G21" s="5">
+        <f>SUM(G15:G19)</f>
         <v>40</v>
       </c>
       <c r="I21" s="5">
-        <v>48</v>
+        <f>SUM(I15:I19)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1300,7 +1292,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E25" s="4">
         <v>6</v>
@@ -1309,10 +1301,10 @@
         <v>5</v>
       </c>
       <c r="G25" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I25" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1337,16 +1329,16 @@
         <v>31</v>
       </c>
       <c r="C27" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="4">
         <v>5</v>
       </c>
       <c r="G27" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I27" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1354,16 +1346,16 @@
         <v>32</v>
       </c>
       <c r="C28" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E28" s="4">
         <v>6</v>
       </c>
       <c r="G28" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I28" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1371,72 +1363,72 @@
         <v>33</v>
       </c>
       <c r="C29" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29" s="4">
         <v>6</v>
       </c>
       <c r="G29" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I29" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G30" s="4">
+        <v>3</v>
+      </c>
+      <c r="I30" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C31" s="4">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4">
         <v>4</v>
       </c>
-      <c r="E30" s="4">
-        <v>4</v>
-      </c>
-      <c r="G30" s="5">
-        <v>4</v>
-      </c>
-      <c r="I30" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="G31" s="5">
+        <v>3</v>
+      </c>
+      <c r="I31" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C32" s="4">
         <v>2</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G32" s="5">
         <v>2</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I32" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="26" t="s">
         <v>36</v>
-      </c>
-      <c r="C32" s="4">
-        <v>3</v>
-      </c>
-      <c r="E32" s="4">
-        <v>3</v>
-      </c>
-      <c r="G32" s="5">
-        <v>3</v>
-      </c>
-      <c r="I32" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C33" s="4">
         <v>3</v>
@@ -1453,23 +1445,40 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3</v>
+      </c>
+      <c r="G34" s="5">
+        <v>3</v>
+      </c>
+      <c r="I34" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C35" s="4">
+        <v>4</v>
+      </c>
+      <c r="E35" s="4">
         <v>5</v>
       </c>
-      <c r="E34" s="4">
-        <v>5</v>
-      </c>
-      <c r="G34" s="5">
-        <v>5</v>
-      </c>
-      <c r="I34" s="5">
-        <v>5</v>
+      <c r="G35" s="5">
+        <v>4</v>
+      </c>
+      <c r="I35" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I36" s="5"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I37" s="5"/>

--- a/WEEK formos/WEEK 05-04.xlsx
+++ b/WEEK formos/WEEK 05-04.xlsx
@@ -907,7 +907,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -918,8 +918,8 @@
   <sheetPr codeName="WeekSummary"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I36" sqref="C36:I36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1039,10 +1039,12 @@
       <c r="C7" s="9"/>
       <c r="E7" s="9"/>
       <c r="G7" s="5">
-        <v>40</v>
+        <f>C21</f>
+        <v>50</v>
       </c>
       <c r="I7" s="5">
-        <v>48</v>
+        <f>E21</f>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1052,10 +1054,12 @@
       <c r="C8" s="9"/>
       <c r="E8" s="9"/>
       <c r="G8" s="5">
-        <v>120</v>
+        <f>80+G7</f>
+        <v>130</v>
       </c>
       <c r="I8" s="5">
-        <v>130.5</v>
+        <f>82.5+E21</f>
+        <v>133.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1065,10 +1069,12 @@
       <c r="C9" s="9"/>
       <c r="E9" s="9"/>
       <c r="G9" s="5">
-        <v>40</v>
+        <f>G7</f>
+        <v>50</v>
       </c>
       <c r="I9" s="5">
-        <v>48</v>
+        <f>I7</f>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1078,10 +1084,12 @@
       <c r="C10" s="9"/>
       <c r="E10" s="9"/>
       <c r="G10" s="5">
-        <v>120</v>
+        <f>G8</f>
+        <v>130</v>
       </c>
       <c r="I10" s="5">
-        <v>130.5</v>
+        <f>I8</f>
+        <v>133.5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1091,10 +1099,12 @@
       <c r="C11" s="9"/>
       <c r="E11" s="9"/>
       <c r="G11" s="5">
-        <v>120</v>
+        <f>G8</f>
+        <v>130</v>
       </c>
       <c r="I11" s="5">
-        <v>130.5</v>
+        <f>I8</f>
+        <v>133.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1134,16 +1144,18 @@
         <v>Team Leader</v>
       </c>
       <c r="C15" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" s="5">
         <v>12</v>
       </c>
       <c r="G15" s="5">
-        <v>8</v>
+        <f>C15</f>
+        <v>10</v>
       </c>
       <c r="I15" s="5">
-        <v>8</v>
+        <f>C15</f>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1152,16 +1164,18 @@
         <v>Development Manager</v>
       </c>
       <c r="C16" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5">
         <v>12</v>
       </c>
       <c r="G16" s="5">
-        <v>8</v>
+        <f t="shared" ref="G16:G19" si="0">C16</f>
+        <v>10</v>
       </c>
       <c r="I16" s="5">
-        <v>8</v>
+        <f t="shared" ref="I16:I19" si="1">C16</f>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1170,16 +1184,18 @@
         <v>Planning Manager</v>
       </c>
       <c r="C17" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="5">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="I17" s="5">
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1188,16 +1204,18 @@
         <v>Quality/Process Manager</v>
       </c>
       <c r="C18" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E18" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="5">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="I18" s="5">
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1206,16 +1224,18 @@
         <v>Support Manager</v>
       </c>
       <c r="C19" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E19" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" s="5">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="I19" s="5">
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1231,19 +1251,19 @@
       </c>
       <c r="C21" s="5">
         <f>SUM(C15:C19)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E21" s="5">
         <f>SUM(E15:E19)</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G21" s="5">
         <f>SUM(G15:G19)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I21" s="5">
         <f>SUM(I15:I19)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1281,9 +1301,11 @@
         <v>0.5</v>
       </c>
       <c r="G24" s="5">
+        <f>C24</f>
         <v>1</v>
       </c>
       <c r="I24" s="5">
+        <f>C24</f>
         <v>1</v>
       </c>
     </row>
@@ -1292,19 +1314,21 @@
         <v>29</v>
       </c>
       <c r="C25" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F25" s="2">
         <v>5</v>
       </c>
       <c r="G25" s="5">
-        <v>4</v>
+        <f t="shared" ref="G25:G35" si="2">C25</f>
+        <v>5</v>
       </c>
       <c r="I25" s="5">
-        <v>4</v>
+        <f t="shared" ref="I25:I35" si="3">C25</f>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1312,16 +1336,18 @@
         <v>30</v>
       </c>
       <c r="C26" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" s="4">
         <v>5</v>
       </c>
       <c r="G26" s="5">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="I26" s="5">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1329,16 +1355,18 @@
         <v>31</v>
       </c>
       <c r="C27" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="4">
         <v>5</v>
       </c>
       <c r="G27" s="5">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I27" s="5">
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1349,12 +1377,14 @@
         <v>5</v>
       </c>
       <c r="E28" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G28" s="5">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I28" s="5">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -1363,16 +1393,18 @@
         <v>33</v>
       </c>
       <c r="C29" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29" s="4">
-        <v>6</v>
-      </c>
-      <c r="G29" s="4">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I29" s="5">
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1380,16 +1412,18 @@
         <v>38</v>
       </c>
       <c r="C30" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="4">
         <v>3.5</v>
       </c>
-      <c r="G30" s="4">
-        <v>3</v>
-      </c>
-      <c r="I30" s="3">
-        <v>3</v>
+      <c r="G30" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1403,9 +1437,11 @@
         <v>4</v>
       </c>
       <c r="G31" s="5">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I31" s="5">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -1414,16 +1450,18 @@
         <v>35</v>
       </c>
       <c r="C32" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
       </c>
       <c r="G32" s="5">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I32" s="5">
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1431,16 +1469,18 @@
         <v>36</v>
       </c>
       <c r="C33" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" s="4">
         <v>3</v>
       </c>
       <c r="G33" s="5">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="I33" s="5">
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1448,16 +1488,18 @@
         <v>37</v>
       </c>
       <c r="C34" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34" s="4">
         <v>3</v>
       </c>
       <c r="G34" s="5">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="I34" s="5">
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1465,16 +1507,18 @@
         <v>26</v>
       </c>
       <c r="C35" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E35" s="4">
         <v>5</v>
       </c>
       <c r="G35" s="5">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I35" s="5">
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">

--- a/WEEK formos/WEEK 05-04.xlsx
+++ b/WEEK formos/WEEK 05-04.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaponnik\Desktop\git repos\TSP\WEEK formos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{085AF6F5-90B1-435E-A1FF-D294238AE6EC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -34,7 +40,7 @@
     <definedName name="validTeamMembersInitials">[1]Team!$C$2:$C$21</definedName>
     <definedName name="WEEKData">Week!$G$7:$G$11,Week!$I$7:$I$11,Week!$C$15:$C$20,Week!$E$15:$E$20,Week!$G$15:$G$20,Week!$I$15:$I$20</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -166,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -379,11 +385,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -391,6 +400,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -907,19 +922,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="WeekSummary"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
